--- a/Files/custmer details.xlsx
+++ b/Files/custmer details.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
   <si>
     <t>Customer Name</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>V1121241</t>
+  </si>
+  <si>
+    <t>V11213</t>
   </si>
 </sst>
 </file>
@@ -428,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,6 +442,8 @@
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -675,6 +680,32 @@
         <v>9456874521</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <v>500082</v>
+      </c>
+      <c r="H10">
+        <v>9456874521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Files/custmer details.xlsx
+++ b/Files/custmer details.xlsx
@@ -431,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="I4:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H10"/>
+      <selection activeCell="I14" sqref="I14:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,263 +446,263 @@
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="4" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="5" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="J5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="L5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="M5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="N5" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
+      <c r="O5">
         <v>500048</v>
       </c>
-      <c r="H2">
+      <c r="P5">
         <v>9032683210</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="6" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="J6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="K6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="L6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="M6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="N6" t="s">
         <v>17</v>
       </c>
-      <c r="G3">
+      <c r="O6">
         <v>500082</v>
       </c>
-      <c r="H3">
+      <c r="P6">
         <v>9456874521</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="7" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="J7" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="K7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="L7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="M7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="N7" t="s">
         <v>12</v>
       </c>
-      <c r="G4">
+      <c r="O7">
         <v>500048</v>
       </c>
-      <c r="H4">
+      <c r="P7">
         <v>9032683210</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="8" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="J8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="K8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="L8" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="M8" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="N8" t="s">
         <v>17</v>
       </c>
-      <c r="G5">
+      <c r="O8">
         <v>500082</v>
       </c>
-      <c r="H5">
+      <c r="P8">
         <v>9456874521</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="9" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="J9" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="K9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="L9" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="M9" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
+      <c r="N9" t="s">
         <v>17</v>
       </c>
-      <c r="G6">
+      <c r="O9">
         <v>500082</v>
       </c>
-      <c r="H6">
+      <c r="P9">
         <v>9456874521</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="10" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="J10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="K10" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
+      <c r="L10" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
+      <c r="M10" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
+      <c r="N10" t="s">
         <v>17</v>
       </c>
-      <c r="G7">
+      <c r="O10">
         <v>500082</v>
       </c>
-      <c r="H7">
+      <c r="P10">
         <v>9456874521</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="11" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="J11" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="K11" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="L11" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="s">
+      <c r="M11" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
+      <c r="N11" t="s">
         <v>17</v>
       </c>
-      <c r="G8">
+      <c r="O11">
         <v>500082</v>
       </c>
-      <c r="H8">
+      <c r="P11">
         <v>9456874521</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="12" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="J12" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="K12" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="L12" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
+      <c r="M12" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
+      <c r="N12" t="s">
         <v>17</v>
       </c>
-      <c r="G9">
+      <c r="O12">
         <v>500082</v>
       </c>
-      <c r="H9">
+      <c r="P12">
         <v>9456874521</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="13" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="J13" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="K13" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
+      <c r="L13" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="s">
+      <c r="M13" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
+      <c r="N13" t="s">
         <v>17</v>
       </c>
-      <c r="G10">
+      <c r="O13">
         <v>500082</v>
       </c>
-      <c r="H10">
+      <c r="P13">
         <v>9456874521</v>
       </c>
     </row>
